--- a/eFormAPI/Plugins/MachineArea.Pn/MachineArea.Pn/Resources/Templates/report_template.xlsx
+++ b/eFormAPI/Plugins/MachineArea.Pn/MachineArea.Pn/Resources/Templates/report_template.xlsx
@@ -4,71 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
-  <si>
-    <t>Periode FRA</t>
-  </si>
-  <si>
-    <t>Periode TIL</t>
-  </si>
-  <si>
-    <t>Vis data som</t>
-  </si>
-  <si>
-    <t>Maned</t>
-  </si>
-  <si>
-    <t>Rapport</t>
-  </si>
-  <si>
-    <t>Medarbejder</t>
-  </si>
-  <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Medarbejer 1</t>
-  </si>
-  <si>
-    <t>Medarbejer 2</t>
-  </si>
-  <si>
-    <t>Medarbejer 3</t>
-  </si>
-  <si>
-    <t>Medarbejer 4</t>
-  </si>
-  <si>
-    <t>Medarbejer 5</t>
-  </si>
-  <si>
-    <t>Medarbejer 6</t>
-  </si>
-  <si>
-    <t>Medarbejer 7</t>
-  </si>
-  <si>
-    <t>Medarbejer 8</t>
-  </si>
-  <si>
-    <t>Medarbejer 9</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -91,30 +38,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -144,21 +73,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -440,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O18"/>
+  <dimension ref="B2:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -452,212 +381,117 @@
     <col min="3" max="3" width="26.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5">
-        <v>43101</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5">
-        <v>43132</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="E8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="D18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B2" s="2"/>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B3" s="2"/>
+      <c r="C3" s="6"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B5" s="1"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B6" s="1"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
